--- a/lab_2/uefa2012.xlsx
+++ b/lab_2/uefa2012.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="60" windowWidth="15288" windowHeight="8724" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RU_Cities" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="114">
   <si>
     <t>Испания</t>
   </si>
@@ -328,6 +328,36 @@
   </si>
   <si>
     <t xml:space="preserve"> NSK Olimpiyskyi, Kyiv (UKR)</t>
+  </si>
+  <si>
+    <t>goal_id</t>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>match_time</t>
+  </si>
+  <si>
+    <t>goal</t>
+  </si>
+  <si>
+    <t>Dimitris Salpingidis</t>
+  </si>
+  <si>
+    <t>Robert Lewandowski</t>
+  </si>
+  <si>
+    <t>Alan Dzagoev</t>
+  </si>
+  <si>
+    <t>Roman Shirokov</t>
+  </si>
+  <si>
+    <t>Václav Pilař</t>
+  </si>
+  <si>
+    <t>Roman Pavlyuchenko</t>
   </si>
 </sst>
 </file>
@@ -361,7 +391,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -455,11 +485,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -470,16 +531,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -874,10 +971,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G33" sqref="G3:J33"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D28" sqref="A1:J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -886,6 +983,7 @@
     <col min="2" max="2" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="7" max="7" width="11.109375" customWidth="1"/>
     <col min="8" max="8" width="25.21875" customWidth="1"/>
     <col min="9" max="9" width="11.88671875" customWidth="1"/>
@@ -894,46 +992,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="D1" s="12"/>
       <c r="F1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="26" t="s">
         <v>76</v>
       </c>
     </row>
@@ -950,19 +1049,19 @@
       <c r="D3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -979,19 +1078,19 @@
       <c r="D4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1008,19 +1107,19 @@
       <c r="D5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1037,19 +1136,19 @@
       <c r="D6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1066,19 +1165,19 @@
       <c r="D7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>5</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1095,19 +1194,19 @@
       <c r="D8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>6</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1124,19 +1223,19 @@
       <c r="D9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>7</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1153,19 +1252,19 @@
       <c r="D10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>8</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1182,19 +1281,19 @@
       <c r="D11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>9</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1211,19 +1310,19 @@
       <c r="D12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>10</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1240,19 +1339,19 @@
       <c r="D13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>11</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1269,19 +1368,19 @@
       <c r="D14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>12</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1298,19 +1397,19 @@
       <c r="D15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>13</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1327,19 +1426,19 @@
       <c r="D16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>14</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1356,19 +1455,19 @@
       <c r="D17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>15</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1385,281 +1484,524 @@
       <c r="D18" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>16</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="28.8">
-      <c r="F19">
+      <c r="F19" s="1">
         <v>17</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="28.8">
-      <c r="F20">
+      <c r="A20" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="1">
         <v>18</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="28.8">
-      <c r="F21">
+      <c r="A21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="1">
         <v>19</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="F22">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22">
+        <v>17</v>
+      </c>
+      <c r="F22" s="1">
         <v>20</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="F23">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23">
+        <v>51</v>
+      </c>
+      <c r="F23" s="1">
         <v>21</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="28.8">
-      <c r="F24">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24">
+        <v>15</v>
+      </c>
+      <c r="F24" s="1">
         <v>22</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="F25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25">
+        <v>24</v>
+      </c>
+      <c r="F25" s="1">
         <v>23</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="28.8">
-      <c r="F26">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26">
+        <v>52</v>
+      </c>
+      <c r="F26" s="1">
         <v>24</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="28.8">
-      <c r="F27">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27">
+        <v>79</v>
+      </c>
+      <c r="F27" s="1">
         <v>25</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="F28">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28">
+        <v>82</v>
+      </c>
+      <c r="F28" s="1">
         <v>26</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="H28" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="28.8">
-      <c r="F29">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1">
         <v>27</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H29" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="F30">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="F30" s="1">
         <v>28</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="H30" s="14" t="s">
+      <c r="H30" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="28.8">
-      <c r="F31">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1">
         <v>29</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H31" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="28.8">
-      <c r="F32">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="F32" s="1">
         <v>30</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="H32" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="6:10">
-      <c r="F33">
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>12</v>
+      </c>
+      <c r="F33" s="4">
         <v>31</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H33" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="6" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
